--- a/data/trans_dic/P25D_R2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R2_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.03758805135048691</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02550682933077185</v>
+        <v>0.02550682933077184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03086894189717218</v>
+        <v>0.03086894189717217</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01965921232799183</v>
+        <v>0.01894694884154554</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01447837081203877</v>
+        <v>0.01442553289323725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01973696087546255</v>
+        <v>0.01972703694942976</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06896296175791776</v>
+        <v>0.06814338231383676</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04425089063768883</v>
+        <v>0.04252662051656626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04570620936203285</v>
+        <v>0.04641145347575305</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0242814204591303</v>
+        <v>0.02562862685167846</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00961513786411936</v>
+        <v>0.009069426491337067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01859830379517912</v>
+        <v>0.01899441752305949</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06789346634904835</v>
+        <v>0.06651344109925918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.024743547291395</v>
+        <v>0.02342626298824289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03789242013720971</v>
+        <v>0.03891590968795033</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02769786762267452</v>
+        <v>0.02769786762267453</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01644872082425848</v>
+        <v>0.01644872082425849</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02206672829897708</v>
+        <v>0.02206672829897707</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01677053281345127</v>
+        <v>0.01730068459010137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009854722336891294</v>
+        <v>0.009654558048716356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01537950734546494</v>
+        <v>0.01481119529948646</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04524055014502533</v>
+        <v>0.04354933771653144</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02676824843149612</v>
+        <v>0.02699798050792129</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03157334993164641</v>
+        <v>0.03067391167353184</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03254658319853125</v>
+        <v>0.03254658319853124</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02360073236111915</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0282392978894169</v>
+        <v>0.02823929788941689</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02063810862424016</v>
+        <v>0.0198162271686225</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01326913181703649</v>
+        <v>0.0139072917566851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01875575543084937</v>
+        <v>0.01979429921893063</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05412496172649102</v>
+        <v>0.05035172238096312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.039295574625157</v>
+        <v>0.03975462583521886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03879468034426478</v>
+        <v>0.04059288923006789</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.03418267560226382</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01930714571788675</v>
+        <v>0.01930714571788674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02652196722546034</v>
+        <v>0.02652196722546035</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02634697480466365</v>
+        <v>0.02689833388428949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01510775932987493</v>
+        <v>0.01498675315327602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02239069585073561</v>
+        <v>0.02201307985297403</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04355053391435557</v>
+        <v>0.0438438441919296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02495102130714699</v>
+        <v>0.02580648763242512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03176767038013772</v>
+        <v>0.03135617763870069</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9783</v>
+        <v>9429</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9028</v>
+        <v>8995</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22130</v>
+        <v>22118</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34319</v>
+        <v>33911</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27594</v>
+        <v>26519</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51247</v>
+        <v>52038</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23297</v>
+        <v>24590</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10722</v>
+        <v>10114</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38585</v>
+        <v>39406</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>65142</v>
+        <v>63818</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27593</v>
+        <v>26124</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78613</v>
+        <v>80736</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17529</v>
+        <v>18083</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10324</v>
+        <v>10115</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32187</v>
+        <v>30997</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47285</v>
+        <v>45518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28044</v>
+        <v>28284</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66078</v>
+        <v>64196</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20051</v>
+        <v>19252</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11971</v>
+        <v>12546</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35142</v>
+        <v>37088</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52584</v>
+        <v>48918</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35450</v>
+        <v>35865</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72689</v>
+        <v>76058</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>91525</v>
+        <v>93441</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55725</v>
+        <v>55279</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>160371</v>
+        <v>157666</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>151288</v>
+        <v>152307</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>92033</v>
+        <v>95188</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>227532</v>
+        <v>224585</v>
       </c>
     </row>
     <row r="24">
